--- a/data-raw/SAA.xlsx
+++ b/data-raw/SAA.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/SAA/data-raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7D4C0-260B-2F4B-99CA-9838E9F5593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25900" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - SAA" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - SAA" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
-  <si>
-    <t>SAA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>key</t>
   </si>
@@ -22,9 +28,6 @@
     <t>en</t>
   </si>
   <si>
-    <t>It</t>
-  </si>
-  <si>
     <t>de</t>
   </si>
   <si>
@@ -209,28 +212,23 @@
   </si>
   <si>
     <t>Test sull'Abilità del Canto</t>
+  </si>
+  <si>
+    <t>it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -371,54 +369,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -429,26 +424,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -647,7 +701,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -665,7 +719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -694,7 +748,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +773,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +798,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +823,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +848,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +873,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +898,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +923,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +948,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,9 +961,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -926,7 +986,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -944,7 +1004,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +1029,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +1054,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1079,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1104,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1129,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1154,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1119,7 +1179,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1204,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1169,7 +1229,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,9 +1242,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1198,7 +1264,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1216,7 +1282,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1311,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1336,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,7 +1361,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1386,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,7 +1411,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,7 +1436,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,7 +1461,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1420,7 +1486,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,7 +1511,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,623 +1524,619 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F56"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.3516" style="1" customWidth="1"/>
-    <col min="2" max="4" width="166.672" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.35156" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="166.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="11">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="11">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="C8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s" s="11">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
+      <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s" s="10">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s" s="10">
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s" s="10">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="B14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
+      <c r="C14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="D14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s" s="11">
+      <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+      <c r="C15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s" s="10">
+      <c r="D15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s" s="11">
+      <c r="B16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="9">
+      <c r="C16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s" s="10">
+      <c r="D16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s" s="11">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D17" t="s" s="11">
+      <c r="B17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="C17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s" s="10">
+      <c r="D17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s" s="11">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s" s="11">
+      <c r="B18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="C18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="D18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+    </row>
+    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data-raw/SAA.xlsx
+++ b/data-raw/SAA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/SAA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7D4C0-260B-2F4B-99CA-9838E9F5593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCF9585-F5A8-E54D-A322-64B5BCBE1730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25900" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="30700" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - SAA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>key</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Welcome to the</t>
   </si>
   <si>
-    <t>Benvenuto al Test sull'Abilità del Canto!</t>
-  </si>
-  <si>
-    <t>Willkommen zum Singing Ability Assessment!</t>
-  </si>
-  <si>
     <t>SAA_welcome_1</t>
   </si>
   <si>
@@ -215,6 +209,24 @@
   </si>
   <si>
     <t>it</t>
+  </si>
+  <si>
+    <t>SAA_test_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benvenuto al Test </t>
+  </si>
+  <si>
+    <t>sull'Abilità del Canto</t>
+  </si>
+  <si>
+    <t>Willkommen zum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a username to see the scoreboard: </t>
+  </si>
+  <si>
+    <t>enter_username_to_see_scoreboard</t>
   </si>
 </sst>
 </file>
@@ -234,7 +246,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +265,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -367,13 +385,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -414,6 +461,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1546,10 +1614,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1568,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1577,140 +1645,142 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1718,13 +1788,13 @@
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1732,13 +1802,13 @@
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1746,13 +1816,13 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1760,97 +1830,107 @@
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
@@ -2133,6 +2213,14 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/data-raw/SAA.xlsx
+++ b/data-raw/SAA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/SAA/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mary/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCF9585-F5A8-E54D-A322-64B5BCBE1730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9253840-685F-7A45-BA44-A1142E6A93EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="500" windowWidth="30700" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - SAA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>key</t>
   </si>
@@ -214,9 +214,6 @@
     <t>SAA_test_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Benvenuto al Test </t>
-  </si>
-  <si>
     <t>sull'Abilità del Canto</t>
   </si>
   <si>
@@ -227,6 +224,12 @@
   </si>
   <si>
     <t>enter_username_to_see_scoreboard</t>
+  </si>
+  <si>
+    <t>Benvenuto a</t>
+  </si>
+  <si>
+    <t>Inserisci un nome utente per vedere il punteggio:</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1616,8 +1619,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1652,7 +1655,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>60</v>
@@ -1668,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1924,12 +1927,14 @@
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>

--- a/data-raw/SAA.xlsx
+++ b/data-raw/SAA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mary/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/SAA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9253840-685F-7A45-BA44-A1142E6A93EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3421FD82-F893-9641-99F8-0B21A984D8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - SAA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>key</t>
   </si>
@@ -230,13 +230,49 @@
   </si>
   <si>
     <t>Inserisci un nome utente per vedere il punteggio:</t>
+  </si>
+  <si>
+    <t>sing_favourite_song_page_title</t>
+  </si>
+  <si>
+    <t>Sing your favourite song!</t>
+  </si>
+  <si>
+    <t>When you are ready, click "Record" and sing your favourite song.</t>
+  </si>
+  <si>
+    <t>Sing the song!</t>
+  </si>
+  <si>
+    <t>When you are ready, click "Record" and sing back the song you hear.</t>
+  </si>
+  <si>
+    <t>Sing Happy Birthday</t>
+  </si>
+  <si>
+    <t>When you are ready, click "Record" and sing back Happy Birthday after you hear it.</t>
+  </si>
+  <si>
+    <t>sing_favourite_song_page_text</t>
+  </si>
+  <si>
+    <t>sing_the_song_page_title</t>
+  </si>
+  <si>
+    <t>sing_the_song_page_text</t>
+  </si>
+  <si>
+    <t>sing_hbd_page_text</t>
+  </si>
+  <si>
+    <t>sing_hbd_page_title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -247,6 +283,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -275,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -417,13 +466,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -478,18 +555,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1619,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1785,7 +1874,7 @@
       <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
@@ -1799,7 +1888,7 @@
       <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
@@ -1813,7 +1902,7 @@
       <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
@@ -1827,7 +1916,7 @@
       <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
@@ -1841,7 +1930,7 @@
       <c r="C14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
@@ -1919,71 +2008,119 @@
       <c r="C19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="20" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>

--- a/data-raw/SAA.xlsx
+++ b/data-raw/SAA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/SAA/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3421FD82-F893-9641-99F8-0B21A984D8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD4134-A3DC-EF4C-84D0-42061CD69532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="2380" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - SAA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
   <si>
     <t>key</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Ti verrà chiesto di imitare alcuni suoni. Per favore, canta queste note sulla sillaba "daah", come nella prima parte della parola "dado" [rima con "fa la la"].</t>
   </si>
   <si>
-    <t>Sie werden gebeten werden einige Töne nachzuahmen. Bitte singen Sie diese Noten auf der Sylbe "daah" nach, so wie am Anfang des Names "David".</t>
-  </si>
-  <si>
     <t>SAA_instructions3</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Cerca di produrre note che siano più stabili possibile, senza vibrato.  Ovvero, cerca di non far traballare la voce. Il computer può analizzare meglio un suono "fermo".</t>
   </si>
   <si>
-    <t>Versuchen Sie Töne zu produzieren, die so stabil wie möglich sind, ohne Vibrato. Das bedeutet, versuchen Sie Ihre Töne nicht flattern zu lassen. Der Computer can einen "klaren" Ton besser analysieren.</t>
-  </si>
-  <si>
     <t>SAA_instructions4</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Dopo aver ascoltato la melodia, fai del tuo meglio per cantarla, poi clicca su Stop. Puoi provare ogni melodia fino a 3 volte. Va bene anche se pensi di non aver capito, semplicemente fai del tuo meglio!</t>
   </si>
   <si>
-    <t>Nachdem Sie die Melodie gehört haben, versuchen Sie diese bestmöglich nachzusingen. Dann klicken Sie auf Stop. Sie können jede Melodie bis zu dreimal versuchen. Es ist okay wenn Sie denken, dass Sie das nicht ganz geschafft haben. Versuchen Sie einfach Ihr Bestes!</t>
-  </si>
-  <si>
     <t>task_name</t>
   </si>
   <si>
@@ -266,13 +257,139 @@
   </si>
   <si>
     <t>sing_hbd_page_title</t>
+  </si>
+  <si>
+    <t>Sie werden gleich gebeten, einige Töne nachzuahmen. Bitte singen Sie diese Noten auf der Silbe "daah" nach, so wie am Anfang des Names "David".</t>
+  </si>
+  <si>
+    <t>Versuchen Sie Töne zu produzieren, die so stabil wie möglich sind, ohne Vibrato. Das bedeutet, versuchen Sie Ihre Töne nicht flattern zu lassen. Der Computer kann einen "klaren" Ton besser analysieren.</t>
+  </si>
+  <si>
+    <t>Sie haben bis zu</t>
+  </si>
+  <si>
+    <t>Sie haben</t>
+  </si>
+  <si>
+    <t>Versuche, um die Melodie so gut wie Sie können, nachzumachen</t>
+  </si>
+  <si>
+    <t>Versuch, um die Melodie so gut wie Sie können, nachzumachen.</t>
+  </si>
+  <si>
+    <t>Nutzen Sie so viele Versuche, wie Sie benötigen. Es ist spannend für uns, Verbesserungen zu sehen.</t>
+  </si>
+  <si>
+    <t>Nachdem Sie die Melodie gehört haben, versuchen Sie diese bestmöglichst nachzusingen. Dann klicken Sie auf Stop. Sie können jede Melodie bis zu dreimal versuchen. Es ist okay wenn Sie denken, dass Sie das nicht ganz geschafft haben. Versuchen Sie einfach Ihr Bestes!</t>
+  </si>
+  <si>
+    <t>Test zur Gesangsfähigkeit</t>
+  </si>
+  <si>
+    <t>Geben Sie einen Nutzernamen ein, um die Punktetafel zu sehen</t>
+  </si>
+  <si>
+    <t>Singen Sie Ihr Lieblingslied!</t>
+  </si>
+  <si>
+    <t>Wenn Sie bereit sind, klicken Sie "Aufnahme" und singen Sie Ihr Lieblingslied.</t>
+  </si>
+  <si>
+    <t>Singen Sie das Lied!</t>
+  </si>
+  <si>
+    <t>Wenn Sie bereit sind, klicken Sie "Aufnahme und singen Sie das Lied nach.</t>
+  </si>
+  <si>
+    <t>Singen Sie Happy Birthday</t>
+  </si>
+  <si>
+    <t>Wenn Sie bereit sind, klicken Sie "Aufnahme" und singen Sie Happy Birthday.</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>Dziedāšanas prasmju novērtējums</t>
+  </si>
+  <si>
+    <t>Esi sveicināts</t>
+  </si>
+  <si>
+    <t>Šajā testā tev vajadzēs atkārtot dažas skaņas un melodijas, kuras mēs tev nospēlēsim. Tas nekas, ja tev šķiet, ka tavas dziedāšanas prasmes nav labas. Pirmajā dziedāšanas testā daži piemēri, iespējams, tev liksies vieglāki un citi sarežģītāki. Šis tests pielāgojas tavam sniegumam, tādēļ katrā izmēģinājuma reizē kļūs arvien sarežģītāk. Mēģini parādīt vislabāko rezultātu.</t>
+  </si>
+  <si>
+    <t>Lūdzu, uzmanīgi izlasi instrukcijas.</t>
+  </si>
+  <si>
+    <t>Kā dziedāt</t>
+  </si>
+  <si>
+    <t>Tev būs jāatkārto dažas skaņas. Lūdzu, nodziedi šīs skaņas ar zilbi "ma"</t>
+  </si>
+  <si>
+    <t>Mēģini veidot skaņas stabili, bez vibrācijas. Tas nozīmē, lai skaņas "nedrebētu". Dators vislabāk spēj izanalizēt "taisnas" skaņas</t>
+  </si>
+  <si>
+    <t>Dziedi tieši mikrofonā, neatrodies pārāk tālu no tā. Attālums ap 30 cm ir atbilstošs.</t>
+  </si>
+  <si>
+    <t>Tev var būt</t>
+  </si>
+  <si>
+    <t>Tev būs</t>
+  </si>
+  <si>
+    <t>iet, lai iegūtu pēc iespējas labāku melodiju</t>
+  </si>
+  <si>
+    <t>ej, lai iegūtu pēc iespējas labāku melodiju</t>
+  </si>
+  <si>
+    <t>Tu vari izmēģināt tik daudz reižu, cik tev ir nepieciešams. Mums ir svarīgi redzēt tava sniegumu uzlabojumu katrā izmēģinājuma reizē.</t>
+  </si>
+  <si>
+    <t>Spēlē / atskaņo skaņu un dziedi līdzi</t>
+  </si>
+  <si>
+    <t>Dziedi melodiju, kuru tu dzirdi</t>
+  </si>
+  <si>
+    <t>Šajās izmēģinājumu reizēs tev jāspiež poga, lai dzirdētu melodiju.</t>
+  </si>
+  <si>
+    <t>Pēc tam, kad noklausīsies melodiju, mēģini to atkārtot, cik vien labi vari, tad nospied "Stop". Tu vari izmēģināt 3 reizes. Tas nekas, ja tev liekas, ka nesanāks, mēģini parādīt vislabāko sniegumu!</t>
+  </si>
+  <si>
+    <t>Dziedāšanas Prasmju Novērtējums</t>
+  </si>
+  <si>
+    <t>Ievadu lietotājvārdu, lai skatītu rezultātu tabulu</t>
+  </si>
+  <si>
+    <t>Dziedi savu mīļāko dziesmu!</t>
+  </si>
+  <si>
+    <t>Kad tu esi gatavs, spied "Ierakstīt" un dziedi savu mīļāko dziesmu.</t>
+  </si>
+  <si>
+    <t>Dziedi dziesmu!</t>
+  </si>
+  <si>
+    <t>Kad tu esi gatavs, spied "Ierakstīt" un dziedi dziesmu, kuru dzirdēji.</t>
+  </si>
+  <si>
+    <t>Dziedi "Happy Birthday"</t>
+  </si>
+  <si>
+    <t>Kad tu esi gatavs, spied "Ierakstīt" un dziedi "Happy Birthday", pēc tam, kad būsi to dzirdējis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -297,8 +414,28 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +456,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBDC0BF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -494,13 +637,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -555,27 +752,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,19 +1922,20 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
     <col min="2" max="4" width="166.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1728,31 +1943,35 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>96</v>
+      </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1760,15 +1979,17 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="D3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1778,13 +1999,15 @@
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1794,13 +2017,15 @@
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -1810,13 +2035,15 @@
       <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="30" t="s">
+        <v>100</v>
+      </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -1826,302 +2053,354 @@
       <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D12" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="D15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="E15" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="D16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="E16" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="E17" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="D18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="D19" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>113</v>
+      </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="B21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="C22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="C23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="D24" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="11"/>
+      <c r="D26" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>120</v>
+      </c>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
